--- a/spreadsheet/macrofree/cost_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/cost_checklist.pt.xlsx
@@ -1152,12 +1152,12 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>excluir/arquivar</t>
+          <t>Excluir/arquivar</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Excluir ou arquivar serviços não associados (discos, NICs, endereços IP, etc.)</t>
+          <t>Excluir ou arquivar serviços não associados (discos, nics, endereços IP etc.)</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1194,12 +1194,12 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>excluir/arquivar</t>
+          <t>Excluir/arquivar</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>considerar a técnica de soneca e parada (soneca um serviço após x dias, pare após 2x, exclua/desalace após 3x)</t>
+          <t>Considere a técnica de soneca e parada (adiar um serviço após x dias, parar após 2x, excluir/desalocar após 3x)</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1236,12 +1236,12 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>excluir/arquivar</t>
+          <t>Excluir/arquivar</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>excluir ou arquivar recursos não utilizados (backups antigos, logs, contas de armazenamento, etc...)</t>
+          <t>Excluir ou arquivar recursos não utilizados (backups antigos, logs, contas de armazenamento, etc...)</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>excluir/arquivar</t>
+          <t>Excluir/arquivar</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Impor uma política de limpeza de log e automação (se necessário, os logs podem ser movidos para armazenamento frio)</t>
+          <t>Impor uma política de log de limpeza e automação (se necessário, os logs podem ser movidos para armazenamento frio)</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Executar pasta de trabalho Recursos Órfãos - excluir ou adiar itens fantasmas</t>
+          <t>Executar pasta de trabalho de recursos órfãos - excluir ou adiar itens fantasmas</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Desligar instâncias subutilizadas</t>
+          <t>Desligamento de instâncias subutilizadas</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>use tags específicas para itens temporários com o formato 'excluir por DATA' - e automatize a limpeza mensal</t>
+          <t>Use tags específicas para itens temporários com o formato 'excluir por DATA' - e automatize a limpeza mensal</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1633,7 +1633,7 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Ajuste de DB/APP</t>
+          <t>Ajuste de banco de dados/aplicativos</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
@@ -1680,12 +1680,12 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>modernização de aplicativos</t>
+          <t>Modernização de aplicativos</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Modernizar o aplicativo para uma arquitetura de microsserviços terá o efeito de permitir que o aplicativo seja dimensionado de acordo com o único serviço e não com toda a pilha</t>
+          <t>Modernizar o aplicativo em direção a uma arquitetura de microsserviços terá o efeito de permitir que o aplicativo seja dimensionado de acordo com o único serviço e não com toda a pilha</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>modelagem da demanda</t>
+          <t>Modelagem de demanda</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>o uso da modelagem de demanda em serviços de PaaS otimizará custos e desempenhos</t>
+          <t>O uso da modelagem de demanda em serviços de PaaS otimizará custos e desempenhos</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">verifique se o Advisor está configurado para o dimensionamento correto da VM </t>
+          <t xml:space="preserve">Verifique se o Advisor está configurado para o dimensionamento correto da VM </t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>considere a implementação de scripts IAC ou pipelines de devops para corresponder ao processo de governança de custos</t>
+          <t>Considere a implementação de scripts IaC ou pipelines devops para corresponder ao processo de governança de custos</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>configurar alertas de custo para aplicativos que têm custos variáveis (idealmente para todos eles)</t>
+          <t>Configurar alertas de custo para aplicativos que têm custos variáveis (idealmente para todos eles)</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>tentar estabelecer uma linha de base de gastos mensais e uma meta de economia aceitável em relação à linha de base (novos serviços não serão otimizados neste estágio)</t>
+          <t>Tente estabelecer uma linha de base de gastos mensais e uma meta de economia aceitável em relação à linha de base (novos serviços não serão otimizados neste estágio)</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>em análise de custos - use granularidade diária, agrupada por nome de serviço para analisar os gastos dos últimos 3 meses e identificar os 3 principais gastadores</t>
+          <t>Na análise de custos - use a granularidade diária, agrupada por nome de serviço para analisar os gastos dos últimos 3 meses e identificar os 3 principais gastadores</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>verificar diariamente picos de custos e anomalias (idealmente com exportações automáticas de faturamento)</t>
+          <t>Verifique diariamente picos de custos e anomalias (idealmente com exportações automáticas de faturamento)</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Serviços Gratuitos</t>
+          <t>Serviços gratuitos</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>considerar a automação de reservas para rastrear e reagir prontamente às alterações</t>
+          <t>Considere a automação de reservas para rastrear e reagir prontamente às alterações</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>verificar as licenças da Red Hat, se aplicável</t>
+          <t>Verifique as licenças da Red Hat, se aplicável</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>planeamento</t>
+          <t>Planeamento</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>consolidar famílias de VM reservadas com opção de flexibilidade (não mais do que 4-5 famílias)</t>
+          <t>Consolidar famílias de VM reservadas com opção de flexibilidade (não mais do que 4-5 famílias)</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Reservas/Planos de Poupança</t>
+          <t>Reservas/planos de poupança</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
@@ -2733,12 +2733,12 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Reservas/Planos de Poupança</t>
+          <t>Reservas/planos de poupança</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>planejar os Planos de Economia do Azure para todas as cargas de trabalho que são dinâmicas e precisam de flexibilidade máxima</t>
+          <t>Planejar planos de economia do Azure para todas as cargas de trabalho que são dinâmicas e precisam de flexibilidade máxima</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2775,12 +2775,12 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Reservas/Planos de Poupança</t>
+          <t>Reservas/planos de poupança</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>planejar Reservas do Azure para todas as cargas de trabalho que são menos dinâmicas e não mudam muito</t>
+          <t>Planejar Reservas do Azure para todas as cargas de trabalho que são menos dinâmicas e não mudam muito</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2816,12 +2816,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>reserva de armazenamento</t>
+          <t>Reservar armazenamento</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>apenas discos maiores podem ser reservados =&gt;1TiB -</t>
+          <t>Somente discos maiores podem ser reservados =&gt; 1 TiB -</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2857,12 +2857,12 @@
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>reservar VMs com tamanhos normalizados e racionalizados</t>
+          <t>Reservar VMs com tamanhos normalizados e racionalizados</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>após a otimização do dimensionamento correto</t>
+          <t>Após a otimização do dimensionamento correto</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>verificar se aplicável e aplicar políticas/alterar https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations</t>
+          <t>Verifique se aplicável e aplique a política/alteração https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>o desconto da peça de licença VM + (ahub+3YRI) é de cerca de 70% de desconto</t>
+          <t>O desconto da peça de licença VM + (ahub + 3YRI) é de cerca de 70% de desconto</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>rastreio</t>
+          <t>Rastreio</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>rastreio</t>
+          <t>Rastreio</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>planejar e aplicar uma política ON/OFF para serviços de produção, sempre que possível</t>
+          <t>Planejar e aplicar uma política On/Off para serviços de produção, sempre que possível</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>planejar e aplicar uma política ON-DEMAND com desligamento automático para serviços que não sejam de produção, sempre que possível</t>
+          <t>Planejar e aplicar uma política sob demanda com desligamento automático para serviços que não sejam de produção, sempre que possível</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>considere o uso de um VMSS para corresponder à demanda em vez de dimensionamento simples</t>
+          <t>Considere o uso de um VMSS para corresponder à demanda em vez de dimensionamento simples</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>use o autoscaler AKS para corresponder ao uso de clusters (verifique se os requisitos dos pods correspondem ao dimensionador)</t>
+          <t>Use o autoscaler AKS para corresponder ao uso de clusters (verifique se os requisitos dos pods correspondem ao dimensionador)</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>serviço PaaS do tamanho certo de acordo com o uso médio e acomodar picos com dimensionamento automático ou manual</t>
+          <t>Serviço PaaS do tamanho certo de acordo com o uso médio e acomoda picos com dimensionamento automático ou manual</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>planejar a modelagem da demanda, quando aplicável</t>
+          <t>Planejar a modelagem da demanda, quando aplicável</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">considerar o uso de VMs spot com fallback, sempre que possívelconsidere o encerramento automático de clusters https://learn.microsoft.com/azure/databricks/clusters/cluster-config-best-practices#automatic-termination </t>
+          <t>Considere o uso de VMs spot com fallback sempre que possível. Considere o autotermination de clusters.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3418,14 +3418,10 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="inlineStr">
-        <is>
-          <t>https://andrewmatveychuk.com/how-to-audit-azure-hybrid-benefit-usage-with-azure-workbooks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/databricks/clusters/cluster-config-best-practices#automatic-termination</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
@@ -3497,7 +3493,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>functions -Armazenar dados em cache localmente</t>
+          <t>Funções - Armazenar dados em cache localmente</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3543,7 +3539,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>funções - Partidas a frio - Use a funcionalidade 'Executar do pacote'. Dessa forma, o código é baixado como um único arquivo zip. Isso pode, por exemplo, resultar em melhorias significativas com as funções Javascript, que possuem muitos módulos de nó. Use ferramentas específicas de linguagem para reduzir o tamanho do pacote, por exemplo, aplicativos Javascript que agitam árvores.</t>
+          <t>Funções - Partidas a frio - Use a funcionalidade 'Executar do pacote'. Dessa forma, o código é baixado como um único arquivo zip. Isso pode, por exemplo, resultar em melhorias significativas com as funções Javascript, que possuem muitos módulos de nó. Use ferramentas específicas de linguagem para reduzir o tamanho do pacote, por exemplo, aplicativos Javascript que agitam árvores.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3635,7 +3631,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>ao usar o dimensionamento automático com funções diferentes, pode haver um direcionando todo o dimensionamento automático para todos os recursos - considere movê-lo para um plano de consumo separado (e considere um plano mais alto para CPU)</t>
+          <t>Ao usar o dimensionamento automático com funções diferentes, pode haver um que conduza todo o dimensionamento automático para todos os recursos - considere movê-lo para um plano de consumo separado (e considere um plano mais alto para a CPU)</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3845,7 +3841,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Frontdoor -Route to something that return nothingConfigure uma Função, Proxy de Função ou adicione uma rota em seu WebApp que retorne 200 (OK) e envie nenhum ou conteúdo mínimo. A vantagem disso é que você poderá fazer logout quando for chamado.</t>
+          <t>Frontdoor - Rota para algo que não retorna nada. Configure uma Função, Proxy de Função ou adicione uma rota em seu WebApp que retorne 200 (OK) e envie conteúdo nulo ou mínimo. A vantagem disso é que você poderá fazer logout quando for chamado.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -3887,7 +3883,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>considerar o uso de camadas livres, quando aplicável, para todos os ambientes que não são de produção</t>
+          <t>Considere o uso de camadas livres, quando aplicável, para todos os ambientes que não são de produção</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -3924,7 +3920,7 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>sem servidor</t>
+          <t>Sem servidor</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
@@ -4013,7 +4009,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>verificar tamanhos de disco onde o tamanho não corresponde à camada (ou seja, um disco de 513 GiB pagará um P30 (1TiB) e considerar o redimensionamento</t>
+          <t>Verifique os tamanhos de disco em que o tamanho não corresponde à camada (ou seja, um disco de 513 GiB pagará um P30 (1TiB) e considere o redimensionamento</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4055,7 +4051,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>considere usar SSD padrão em vez de Premium ou Ultra sempre que possível</t>
+          <t>Considere usar SSD padrão em vez de Premium ou Ultra sempre que possível</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4139,7 +4135,7 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>para ASR, considere o uso de discos SSD padrão se o RPO/RTO e a taxa de transferência de replicação permitirem</t>
+          <t>Para ASR, considere o uso de discos SSD padrão se o RPO/RTO e a taxa de transferência de replicação permitirem</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4181,7 +4177,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>contas de armazenamento: verifique o hot tier e/ou o GRS necessário</t>
+          <t>Contas de armazenamento: verifique o hot tier e/ou o GRS necessário</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4218,12 +4214,12 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>armazenamento</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Discos - validam o uso de discos SSD Premium em todos os lugares: por exemplo, não-prod pode trocar para SSD padrão ou SSD Premium sob demanda  </t>
+          <t xml:space="preserve">Discos - valide o uso de discos SSD Premium em todos os lugares: por exemplo, não-prod pode trocar para SSD padrão ou SSD Premium sob demanda  </t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4521,7 +4517,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Usar VMs SPOT para trabalhos interruptíveis: são VMs que podem ser licitadas e compradas a um preço com desconto, fornecendo uma solução econômica para cargas de trabalho não críticas.</t>
+          <t>Usar VMs spot para trabalhos interruptíveis: são VMs que podem ser licitadas e compradas a um preço com desconto, fornecendo uma solução econômica para cargas de trabalho não críticas.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4567,7 +4563,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>dimensionamento correto de todas as VMs</t>
+          <t>Dimensionamento correto de todas as VMs</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4609,7 +4605,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>trocar VM dimensionada com tamanhos normalizados e mais recentes</t>
+          <t>Trocar VM dimensionada com tamanhos normalizados e mais recentes</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>

--- a/spreadsheet/macrofree/cost_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/cost_checklist.pt.xlsx
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor - impor regras de coleta de dados</t>
+          <t>Azure Monitor – impor regras de coleta de dados</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1073,7 +1073,11 @@
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
-      <c r="E8" s="21" t="n"/>
+      <c r="E8" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1115,11 +1119,15 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Verificar instâncias de backup com a fonte de dados subjacente não encontrada</t>
+          <t>Verifique as instâncias de backup com a fonte de dados subjacente não encontrada</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
-      <c r="E9" s="21" t="n"/>
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1157,11 +1165,15 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Excluir ou arquivar serviços não associados (discos, nics, endereços IP etc.)</t>
+          <t>Excluir ou arquivar serviços não associados (discos, NICs, endereços IP, etc.)</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="n"/>
+      <c r="E10" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1203,7 +1215,11 @@
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
-      <c r="E11" s="21" t="n"/>
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1245,7 +1261,11 @@
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
-      <c r="E12" s="21" t="n"/>
+      <c r="E12" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1283,11 +1303,15 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Considere um bom equilíbrio entre recuperação de local, armazenamento e backup para aplicativos não essenciais</t>
+          <t>Considere um bom equilíbrio entre o armazenamento de recuperação de site e o backup para aplicativos não essenciais</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
-      <c r="E13" s="21" t="n"/>
+      <c r="E13" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1320,16 +1344,20 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>Retenção do Log Analytics para espaços de trabalho</t>
+          <t>Retenção do Log Analytics para workspaces</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verifique os gastos e as oportunidades de economia entre os 40 diferentes espaços de trabalho de análise de log - use retenção e coleta de dados diferentes para espaços de trabalho não prod - crie limite diário para reconhecimento e dimensionamento de camadas - Se você definir um limite diário, além de criar um alerta quando o limite for atingido, certifique-se de também criar uma regra de alerta para ser notificado quando alguma porcentagem for atingida (90%, por exemplo). - considerar a transformação do espaço de trabalho, se possível - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
+          <t xml:space="preserve">Verifique as oportunidades de gastos e economias entre os 40 workspaces diferentes do Log Analytics – use retenção e coleta de dados diferentes para workspaces não produtivos – crie um limite diário para reconhecimento e dimensionamento de camadas – se você definir um limite diário, além de criar um alerta quando o limite for atingido, certifique-se de criar também uma regra de alerta para ser notificado quando alguma porcentagem for atingida (90%, por exemplo). - considere a transformação do espaço de trabalho, se possível - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
-      <c r="E14" s="21" t="n"/>
+      <c r="E14" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1371,11 +1399,15 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Impor uma política de log de limpeza e automação (se necessário, os logs podem ser movidos para armazenamento frio)</t>
+          <t>Impor uma política e automação de logs de limpeza (se necessário, os logs podem ser movidos para o armazenamento frio)</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
-      <c r="E15" s="21" t="n"/>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1421,7 +1453,11 @@
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
-      <c r="E16" s="21" t="n"/>
+      <c r="E16" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1463,11 +1499,15 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Desligamento de instâncias subutilizadas</t>
+          <t>Encerrar instâncias subutilizadas</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
-      <c r="E17" s="21" t="n"/>
+      <c r="E17" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1509,11 +1549,15 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os discos são realmente necessários, se não: excluir. Se forem necessários, encontre níveis de armazenamento mais baixos ou use backup -</t>
+          <t>Verifique se os discos são realmente necessários, se não: exclua. Se forem necessários, encontre camadas de armazenamento mais baixas ou use backup -</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
-      <c r="E18" s="21" t="n"/>
+      <c r="E18" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1555,11 +1599,15 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere mover o armazenamento não utilizado para o nível inferior, com regra personalizada - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
+          <t xml:space="preserve">Considere mover o armazenamento não utilizado para um nível inferior, com regra personalizada - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
-      <c r="E19" s="21" t="n"/>
+      <c r="E19" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1605,7 +1653,11 @@
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
-      <c r="E20" s="21" t="n"/>
+      <c r="E20" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1633,7 +1685,7 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Ajuste de banco de dados/aplicativos</t>
+          <t>Ajuste de banco de dados/aplicativo</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
@@ -1643,11 +1695,15 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Planejar a otimização de banco de dados com a intenção de reduzir o tamanho dos serviços relacionados (e melhorar o desempenho)</t>
+          <t>Planeje a otimização do banco de dados com a intenção de reduzir o tamanho dos serviços relacionados (e melhorar o desempenho)</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
-      <c r="E21" s="21" t="n"/>
+      <c r="E21" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1675,7 +1731,7 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Ajuste de DB/APP</t>
+          <t>Ajuste de banco de dados/aplicativo</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
@@ -1685,11 +1741,15 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Modernizar o aplicativo em direção a uma arquitetura de microsserviços terá o efeito de permitir que o aplicativo seja dimensionado de acordo com o único serviço e não com toda a pilha</t>
+          <t>Modernizar o aplicativo para uma arquitetura de microsserviços terá o efeito de permitir que o aplicativo seja dimensionado de acordo com o serviço único e não com toda a pilha</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
-      <c r="E22" s="21" t="n"/>
+      <c r="E22" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1717,7 +1777,7 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>Ajuste de DB/APP</t>
+          <t>Ajuste de banco de dados/aplicativo</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
@@ -1727,11 +1787,15 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>a otimização das consultas de banco de dados aumentará o desempenho e permitirá um melhor dimensionamento correto do armazenamento e das VMs</t>
+          <t>otimizar as consultas de banco de dados aumentará o desempenho e permitirá um melhor dimensionamento correto do armazenamento e das VMs</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
-      <c r="E23" s="21" t="n"/>
+      <c r="E23" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1759,12 +1823,12 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Ajuste de DB/APP</t>
+          <t>Ajuste de banco de dados/aplicativo</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Modelagem de demanda</t>
+          <t>Modelagem da demanda</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
@@ -1773,7 +1837,11 @@
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
-      <c r="E24" s="21" t="n"/>
+      <c r="E24" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1811,11 +1879,15 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Comece a partir das sugestões de página do Azure Advisor.</t>
+          <t>Comece nas sugestões da página do Assistente do Azure.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
-      <c r="E25" s="21" t="n"/>
+      <c r="E25" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1853,11 +1925,15 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verifique se o Advisor está configurado para o dimensionamento correto da VM </t>
+          <t xml:space="preserve">Verifique se o assistente está configurado para o dimensionamento correto da VM </t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
-      <c r="E26" s="21" t="n"/>
+      <c r="E26" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1895,11 +1971,15 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Considere a implementação de scripts IaC ou pipelines devops para corresponder ao processo de governança de custos</t>
+          <t>Considere a implementação de scripts de IaC ou pipelines de DevOps para corresponder ao processo de governança de custos</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
-      <c r="E27" s="21" t="n"/>
+      <c r="E27" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1936,11 +2016,15 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Configurar alertas de custo para aplicativos que têm custos variáveis (idealmente para todos eles)</t>
+          <t>Configure alertas de custo para aplicativos que têm custos variáveis (idealmente para todos eles)</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
-      <c r="E28" s="21" t="n"/>
+      <c r="E28" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1981,7 +2065,11 @@
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
-      <c r="E29" s="21" t="n"/>
+      <c r="E29" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2022,7 +2110,11 @@
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
-      <c r="E30" s="21" t="n"/>
+      <c r="E30" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2059,11 +2151,15 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Tente estabelecer uma linha de base de gastos mensais e uma meta de economia aceitável em relação à linha de base (novos serviços não serão otimizados neste estágio)</t>
+          <t>Tente estabelecer uma linha de base de gastos mensais e uma meta de economia aceitável em relação à linha de base (novos serviços não serão otimizados nesta fase)</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
-      <c r="E31" s="21" t="n"/>
+      <c r="E31" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2100,11 +2196,15 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Estabeleça uma linha de base de otimização de custos usando uma política que marque cada novo recurso como #NEW</t>
+          <t>Estabeleça uma linha de base de otimização de custos usando uma política que marca cada novo recurso como #NEW</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
-      <c r="E32" s="21" t="n"/>
+      <c r="E32" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2146,7 +2246,11 @@
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
-      <c r="E33" s="21" t="n"/>
+      <c r="E33" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2188,7 +2292,11 @@
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
-      <c r="E34" s="21" t="n"/>
+      <c r="E34" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2230,7 +2338,11 @@
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
-      <c r="E35" s="21" t="n"/>
+      <c r="E35" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2268,11 +2380,15 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Verifique diariamente picos de custos e anomalias (idealmente com exportações automáticas de faturamento)</t>
+          <t>Verifique diariamente se há picos de custo e anomalias (idealmente com exportações de faturamento automático)</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
-      <c r="E36" s="21" t="n"/>
+      <c r="E36" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2314,7 +2430,11 @@
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
-      <c r="E37" s="21" t="n"/>
+      <c r="E37" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2356,7 +2476,11 @@
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
-      <c r="E38" s="21" t="n"/>
+      <c r="E38" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2398,7 +2522,11 @@
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
-      <c r="E39" s="21" t="n"/>
+      <c r="E39" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2440,7 +2568,11 @@
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
-      <c r="E40" s="21" t="n"/>
+      <c r="E40" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2478,11 +2610,15 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Considere a automação de reservas para rastrear e reagir prontamente às alterações</t>
+          <t>Considere a automação de reservas para rastrear e reagir prontamente às mudanças</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
-      <c r="E41" s="21" t="n"/>
+      <c r="E41" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2520,15 +2656,19 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>executar o script em todas as VMs do Windows https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server- considere implementar uma diretiva se as VMs do Windows forem criadas com frequência</t>
+          <t>executar o script em todas as VMs do Windows https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server considere implementar uma política se as VMs do Windows forem criadas com frequência</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>verifique pesquisando as Licenças de Categoria de Medidor na Análise de Custos</t>
-        </is>
-      </c>
-      <c r="E42" s="21" t="n"/>
+          <t>verifique pesquisando as Licenças de Categoria de Medidor na análise de custos</t>
+        </is>
+      </c>
+      <c r="E42" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2566,11 +2706,15 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> isso também pode ser colocado no AHUB se você já tiver licenças https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
+          <t xml:space="preserve"> isso também pode ser colocado em AHUB se você já tiver licenças https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
-      <c r="E43" s="21" t="n"/>
+      <c r="E43" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2608,11 +2752,15 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Os planos de poupança fornecerão 17% em planos de serviço de aplicativo selecionados</t>
+          <t>Os planos de economia fornecerão 17% em planos de serviço de aplicativo selecionados</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
-      <c r="E44" s="21" t="n"/>
+      <c r="E44" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2650,11 +2798,15 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Consolidar famílias de VM reservadas com opção de flexibilidade (não mais do que 4-5 famílias)</t>
+          <t>Consolide famílias de VMs reservadas com opção de flexibilidade (não mais do que 4 a 5 famílias)</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
-      <c r="E45" s="21" t="n"/>
+      <c r="E45" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2696,11 +2848,15 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Utilize instâncias reservadas do Azure: esse recurso permite reservar VMs por um período de 1 ou 3 anos, proporcionando uma economia significativa em comparação com os preços do PAYG.</t>
+          <t>Utilize instâncias reservadas do Azure: esse recurso permite reservar VMs por um período de 1 ou 3 anos, proporcionando economia significativa em comparação com os preços do PAYG.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
-      <c r="E46" s="21" t="n"/>
+      <c r="E46" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2738,11 +2894,15 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Planejar planos de economia do Azure para todas as cargas de trabalho que são dinâmicas e precisam de flexibilidade máxima</t>
+          <t>Planejar os Savings Plans do Azure para todas as cargas de trabalho dinâmicas e que precisam de flexibilidade máxima</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
-      <c r="E47" s="21" t="n"/>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2780,11 +2940,15 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Planejar Reservas do Azure para todas as cargas de trabalho que são menos dinâmicas e não mudam muito</t>
+          <t>Planeje as Reservas do Azure para todas as cargas de trabalho que são menos dinâmicas e não mudarão muito</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="n"/>
+      <c r="E48" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2816,7 +2980,7 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Reservar armazenamento</t>
+          <t>Armazenamento de reserva</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
@@ -2825,7 +2989,11 @@
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
+      <c r="E49" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2857,16 +3025,20 @@
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Reservar VMs com tamanhos normalizados e racionalizados</t>
+          <t>VMs de reserva com tamanhos normalizados e racionalizados</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Após a otimização do dimensionamento correto</t>
+          <t>Após a otimização de dimensionamento correto</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="n"/>
+      <c r="E50" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2899,7 +3071,7 @@
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>Banco de dados SQL AHUB</t>
+          <t>AHUB do Banco de Dados SQL</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
@@ -2908,7 +3080,11 @@
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2946,11 +3122,15 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>O desconto da peça de licença VM + (ahub + 3YRI) é de cerca de 70% de desconto</t>
+          <t>O desconto da VM + parte da licença (ahub + 3YRI) é de cerca de 70% de desconto</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="n"/>
+      <c r="E52" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -2988,11 +3168,15 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os planos de Reservas e Poupanças do Azure estão perto de 100% de utilização ou faça as alterações necessárias para alcançá-lo.</t>
+          <t>Verifique se os planos de Reservas e Economias do Azure estão próximos de 100% de utilização ou faça as alterações necessárias para alcançá-lo.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3033,7 +3217,11 @@
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="n"/>
+      <c r="E54" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3071,11 +3259,15 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Planejar e aplicar uma política On/Off para serviços de produção, sempre que possível</t>
+          <t>Planeje e aplique uma política de ativação/desativação para serviços de produção, sempre que possível</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="n"/>
+      <c r="E55" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3112,11 +3304,15 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Planejar e aplicar uma política sob demanda com desligamento automático para serviços que não sejam de produção, sempre que possível</t>
+          <t>Planeje e aplique uma política sob demanda com desligamento automático para serviços que não sejam de produção, sempre que possível</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="n"/>
+      <c r="E56" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3153,11 +3349,15 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de um VMSS para corresponder à demanda em vez de dimensionamento simples</t>
+          <t>Considere usar um VMSS para atender à demanda em vez de dimensionamento simples</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="n"/>
+      <c r="E57" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3194,11 +3394,15 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Use o autoscaler AKS para corresponder ao uso de clusters (verifique se os requisitos dos pods correspondem ao dimensionador)</t>
+          <t>Usar o dimensionador automático do AKS para corresponder ao uso de clusters (verifique se os requisitos de pods correspondem ao dimensionador)</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="n"/>
+      <c r="E58" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3235,11 +3439,15 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Serviço PaaS do tamanho certo de acordo com o uso médio e acomoda picos com dimensionamento automático ou manual</t>
+          <t>Dimensione corretamente o serviço de PaaS de acordo com o uso médio e acomode picos com dimensionamento automático ou manual</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="n"/>
+      <c r="E59" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3280,7 +3488,11 @@
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="n"/>
+      <c r="E60" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3317,11 +3529,15 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Considere a implementação de uma lógica de redimensionamento de serviço no aplicativo</t>
+          <t>Considere implementar uma lógica de redimensionamento de serviço no aplicativo</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
-      <c r="E61" s="21" t="n"/>
+      <c r="E61" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3359,11 +3575,15 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Mover pontos de recuperação para o vault-archive, quando aplicável (Validar)</t>
+          <t>Mover pontos de recuperação para vault-archive quando aplicável (Validar)</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
-      <c r="E62" s="21" t="n"/>
+      <c r="E62" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3400,16 +3620,20 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Tijolos de dados</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de VMs spot com fallback sempre que possível. Considere o autotermination de clusters.</t>
+          <t>Considere usar VMs spot com fallback sempre que possível. Considere o encerramento automático de clusters.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
-      <c r="E63" s="21" t="n"/>
+      <c r="E63" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3451,7 +3675,11 @@
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
-      <c r="E64" s="21" t="n"/>
+      <c r="E64" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3497,7 +3725,11 @@
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
-      <c r="E65" s="21" t="n"/>
+      <c r="E65" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3539,11 +3771,15 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Funções - Partidas a frio - Use a funcionalidade 'Executar do pacote'. Dessa forma, o código é baixado como um único arquivo zip. Isso pode, por exemplo, resultar em melhorias significativas com as funções Javascript, que possuem muitos módulos de nó. Use ferramentas específicas de linguagem para reduzir o tamanho do pacote, por exemplo, aplicativos Javascript que agitam árvores.</t>
+          <t>Funções - Inicializações a frio - Use a funcionalidade 'Executar do pacote'. Dessa forma, o código é baixado como um único arquivo zip. Isso pode, por exemplo, resultar em melhorias significativas com funções Javascript, que possuem muitos módulos de nó. Use ferramentas específicas de linguagem para reduzir o tamanho do pacote, por exemplo, aplicativos Javascript que agitam a árvore.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
-      <c r="E66" s="21" t="n"/>
+      <c r="E66" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3589,7 +3825,11 @@
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
-      <c r="E67" s="21" t="n"/>
+      <c r="E67" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3631,11 +3871,15 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o dimensionamento automático com funções diferentes, pode haver um que conduza todo o dimensionamento automático para todos os recursos - considere movê-lo para um plano de consumo separado (e considere um plano mais alto para a CPU)</t>
+          <t>Ao usar o dimensionamento automático com funções diferentes, pode haver uma direcionando todo o dimensionamento automático para todos os recursos – considere movê-lo para um plano de consumo separado (e considere um plano mais alto para a CPU)</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
-      <c r="E68" s="21" t="n"/>
+      <c r="E68" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3673,11 +3917,15 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Os aplicativos de função em um determinado plano são todos dimensionados juntos, portanto, quaisquer problemas com o dimensionamento podem afetar todos os aplicativos no plano.</t>
+          <t>Os aplicativos de funções em um determinado plano são todos dimensionados juntos, portanto, qualquer problema com o dimensionamento pode afetar todos os aplicativos no plano.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
-      <c r="E69" s="21" t="n"/>
+      <c r="E69" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3715,11 +3963,15 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Sou cobrado por 'tempo de espera'? Essa pergunta geralmente é feita no contexto de uma função C# que faz uma operação assíncrona e aguarda o resultado, por exemplo, aguardar Task.Delay(1000) ou aguardar cliente. GetAsync('http://google.com'). A resposta é sim - o segundo cálculo de GB é baseado na hora de início e término da função e no uso de memória durante esse período. O que realmente acontece ao longo desse tempo em termos de atividade da CPU não é levado em consideração no cálculo. Uma exceção a essa regra é se você estiver usando funções duráveis. Você não é cobrado pelo tempo gasto em espera em funções de orquestrador.aplique técnicas de modelagem de demanda sempre que possível (ambientes de desenvolvimento?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
+          <t>Sou cobrado por 'tempo de espera'? Essa pergunta normalmente é feita no contexto de uma função C# que faz uma operação assíncrona e aguarda o resultado, por exemplo, await Task.Delay(1000) ou await client. GetAsync('http://google.com'). A resposta é sim - o segundo cálculo de GB é baseado na hora de início e término da função e no uso de memória durante esse período. O que realmente acontece ao longo desse tempo em termos de atividade da CPU não é levado em consideração no cálculo. Uma exceção a essa regra é se você estiver usando funções duráveis. Você não é cobrado pelo tempo gasto em esperas em funções de orquestrador.aplique técnicas de modelagem de demanda sempre que possível (ambientes de desenvolvimento?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
-      <c r="E70" s="21" t="n"/>
+      <c r="E70" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3761,7 +4013,11 @@
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
-      <c r="E71" s="21" t="n"/>
+      <c r="E71" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3799,11 +4055,15 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Frontdoor - Desativar a página inicial padrãoNas configurações do aplicativo do seu aplicativo, defina AzureWebJobsDisableHomepage como true. Isso retornará um 204 (Sem Conteúdo) para o PoP para que apenas os dados de cabeçalho sejam retornados.</t>
+          <t>Frontdoor – Desativar a home page padrãoNas configurações do aplicativo do aplicativo, defina AzureWebJobsDisableHomepage como true. Isso retornará um 204 (Sem Conteúdo) para o PoP, portanto, apenas os dados do cabeçalho serão retornados.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
-      <c r="E72" s="21" t="n"/>
+      <c r="E72" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3841,11 +4101,15 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Frontdoor - Rota para algo que não retorna nada. Configure uma Função, Proxy de Função ou adicione uma rota em seu WebApp que retorne 200 (OK) e envie conteúdo nulo ou mínimo. A vantagem disso é que você poderá fazer logout quando for chamado.</t>
+          <t>Frontdoor - Rota para algo que não retorna nada. Configure uma Função, Proxy de Função ou adicione uma rota em seu WebApp que retorne 200 (OK) e não envie conteúdo ou conteúdo mínimo. A vantagem disso é que você poderá sair quando for chamado.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
-      <c r="E73" s="21" t="n"/>
+      <c r="E73" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3883,11 +4147,15 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de camadas livres, quando aplicável, para todos os ambientes que não são de produção</t>
+          <t>Considere o uso de camadas gratuitas, quando aplicável, para todos os ambientes de não produção</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
-      <c r="E74" s="21" t="n"/>
+      <c r="E74" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3925,11 +4193,15 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Usar padrões sem servidor para picos pode ajudar a manter os custos baixos</t>
+          <t>O uso de padrões sem servidor para picos pode ajudar a manter os custos baixos</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
-      <c r="E75" s="21" t="n"/>
+      <c r="E75" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -3967,11 +4239,15 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Considere níveis de arquivamento para dados menos usados</t>
+          <t>Considere o arquivamento de camadas para dados menos usados</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
-      <c r="E76" s="21" t="n"/>
+      <c r="E76" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4009,11 +4285,15 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Verifique os tamanhos de disco em que o tamanho não corresponde à camada (ou seja, um disco de 513 GiB pagará um P30 (1TiB) e considere o redimensionamento</t>
+          <t>Verifique os tamanhos de disco em que o tamanho não corresponde à camada (ou seja, um disco de 513 GiB pagará um P30 (1 TiB) e considere o redimensionamento</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
-      <c r="E77" s="21" t="n"/>
+      <c r="E77" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4055,7 +4335,11 @@
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
-      <c r="E78" s="21" t="n"/>
+      <c r="E78" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4093,11 +4377,15 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Para contas de armazenamento, verifique se a camada escolhida não está somando encargos de transação (pode ser mais barato passar para a próxima camada)</t>
+          <t>Para contas de armazenamento, verifique se a camada escolhida não está adicionando encargos de transação (pode ser mais barato passar para a próxima camada)</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
-      <c r="E79" s="21" t="n"/>
+      <c r="E79" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4135,11 +4423,15 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Para ASR, considere o uso de discos SSD padrão se o RPO/RTO e a taxa de transferência de replicação permitirem</t>
+          <t>Para ASR, considere usar discos SSD padrão se o RPO/RTO e a taxa de transferência de replicação permitirem</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
-      <c r="E80" s="21" t="n"/>
+      <c r="E80" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4177,11 +4469,15 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Contas de armazenamento: verifique o hot tier e/ou o GRS necessário</t>
+          <t>Contas de armazenamento: verifique a camada frequente e/ou GRS necessária</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
-      <c r="E81" s="21" t="n"/>
+      <c r="E81" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4219,11 +4515,15 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Discos - valide o uso de discos SSD Premium em todos os lugares: por exemplo, não-prod pode trocar para SSD padrão ou SSD Premium sob demanda  </t>
+          <t xml:space="preserve">Discos - valide o uso de discos SSD Premium em todos os lugares: por exemplo, não produção pode trocar para SSD Standard ou SSD Premium sob demanda  </t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
-      <c r="E82" s="21" t="n"/>
+      <c r="E82" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4265,7 +4565,11 @@
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
-      <c r="E83" s="21" t="n"/>
+      <c r="E83" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4303,11 +4607,15 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Exporte dados de custo para uma conta de armazenamento para análise de dados adicionais.</t>
+          <t>Exporte dados de custo para uma conta de armazenamento para análise de dados adicional.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
-      <c r="E84" s="21" t="n"/>
+      <c r="E84" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4345,11 +4653,15 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Controle os custos de um pool SQL dedicado pausando o recurso quando ele não estiver em uso.</t>
+          <t>Controle os custos de um pool de SQL dedicado pausando o recurso quando ele não estiver em uso.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
-      <c r="E85" s="21" t="n"/>
+      <c r="E85" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4387,11 +4699,15 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Habilite o recurso de pausa automática do Apache Spark sem servidor e defina seu valor de tempo limite de acordo.</t>
+          <t>Habilite o recurso de pausa automática do Apache Spark sem servidor e defina o valor de tempo limite de acordo.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
-      <c r="E86" s="21" t="n"/>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4433,7 +4749,11 @@
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
-      <c r="E87" s="21" t="n"/>
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4471,11 +4791,15 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Adquira unidades de confirmação (SCU) do Azure Synapse por um ano com um plano de pré-compra para economizar nos custos do Azure Synapse Analytics.</t>
+          <t>Compre SCU (unidades de confirmação) do Azure Synapse por um ano com um plano de pré-compra para economizar nos custos do Azure Synapse Analytics.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="n"/>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4517,11 +4841,15 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Usar VMs spot para trabalhos interruptíveis: são VMs que podem ser licitadas e compradas a um preço com desconto, fornecendo uma solução econômica para cargas de trabalho não críticas.</t>
+          <t>Use VMs spot para trabalhos que podem ser interrompidos: são VMs que podem ser licitadas e compradas a um preço com desconto, fornecendo uma solução econômica para cargas de trabalho não críticas.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
-      <c r="E89" s="21" t="n"/>
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4567,7 +4895,11 @@
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
-      <c r="E90" s="21" t="n"/>
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4605,11 +4937,15 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Trocar VM dimensionada com tamanhos normalizados e mais recentes</t>
+          <t>Trocar o tamanho da VM pelos tamanhos normalizados e mais recentes</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
-      <c r="E91" s="21" t="n"/>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4651,11 +4987,15 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>VMs de dimensionamento correto - comece com o monitoramento do uso abaixo de 5% e, em seguida, trabalhe até 40%</t>
+          <t>VMs de dimensionamento correto - comece monitorando o uso abaixo de 5% e, em seguida, trabalhe até 40%</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
-      <c r="E92" s="21" t="n"/>
+      <c r="E92" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -4697,11 +5037,15 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>A conteinerização de um aplicativo pode melhorar a densidade da VM e economizar dinheiro no dimensionamento</t>
+          <t>A conteinerização de um aplicativo pode melhorar a densidade da VM e economizar dinheiro ao dimensioná-la</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -8165,7 +8509,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ajuste de banco de dados/aplicativos</t>
+          <t>Ajuste de banco de dados/aplicativo</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -8197,7 +8541,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Essa verificação foi verificada e não há outros itens de ação associados a ela</t>
+          <t>Essa verificação foi verificada e não há mais itens de ação associados a ela</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -8241,7 +8585,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Não aplicável ao projeto atual</t>
+          <t>Não aplicável para o projeto atual</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
